--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2468600.900030388</v>
+        <v>2464296.56022052</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="X2" t="n">
-        <v>12.84496163790551</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>43.52855833426903</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>34.09352539322363</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>169.8437999983363</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.6084191422256</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>130.9356567043871</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.07526087030939</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.43571886636227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>68.36004337105338</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>244.2852414430519</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465017</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>186.4600614194635</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.756734485343</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115229</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256429</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>50.3457193218006</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>228.1039683463061</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206811</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.6282353729497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.4093105446517</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.16673120696834</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>20.2254435299347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.3174219124954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881279</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>70.40964990483307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.1666147997983</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>248.9956281612803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.3470522562613</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>68.11883945936999</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>285.4827669718948</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>89.43475015428537</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C2" t="n">
         <v>41.00642392276842</v>
@@ -4330,13 +4330,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>320.3587892151035</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.8274961801185</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="C3" t="n">
-        <v>246.8274961801185</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>246.8274961801185</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>246.8274961801185</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>26.30736892571879</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>100.991389695173</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304912</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057194</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>622.8943334057194</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>415.0428332001866</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>415.0428332001866</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.4249761124504</v>
+        <v>448.519540580805</v>
       </c>
       <c r="C4" t="n">
-        <v>347.4887931845435</v>
+        <v>448.519540580805</v>
       </c>
       <c r="D4" t="n">
-        <v>347.4887931845435</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="E4" t="n">
-        <v>347.4887931845435</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
         <v>144.4815281019473</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407075</v>
+        <v>676.5090914788224</v>
       </c>
       <c r="X4" t="n">
-        <v>698.0734409426901</v>
+        <v>448.519540580805</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.0734409426901</v>
+        <v>448.519540580805</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>153.355349495461</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832.0187073593814</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>657.5656780782545</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>508.6312684170032</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>349.3938134115477</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1054.855520006025</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000.234044379449</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>343.9546663945495</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>175.0184834666425</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>175.0184834666425</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075543</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735295</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>405.0008470676427</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>405.0008470676427</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>405.0008470676427</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>405.0008470676427</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1091.12035161894</v>
+        <v>1688.387721345801</v>
       </c>
       <c r="C8" t="n">
-        <v>1091.12035161894</v>
+        <v>1688.387721345801</v>
       </c>
       <c r="D8" t="n">
-        <v>844.3675824845442</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>844.3675824845442</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353407</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467171</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045947</v>
+        <v>795.1862829045924</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209588</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.9057189406</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550203</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762142</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.248837287712</v>
+        <v>2372.219263959486</v>
       </c>
       <c r="V8" t="n">
-        <v>1851.185949944142</v>
+        <v>2041.156376615915</v>
       </c>
       <c r="W8" t="n">
-        <v>1851.185949944142</v>
+        <v>1688.387721345801</v>
       </c>
       <c r="X8" t="n">
-        <v>1477.720191683062</v>
+        <v>1688.387721345801</v>
       </c>
       <c r="Y8" t="n">
-        <v>1477.720191683062</v>
+        <v>1688.387721345801</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,58 +4877,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>238.3188829507235</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148187</v>
+        <v>589.4696922330246</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483006</v>
+        <v>884.0056756665058</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.361020933141</v>
+        <v>1247.072144140807</v>
       </c>
       <c r="N9" t="n">
-        <v>1613.445423405711</v>
+        <v>1634.156546613376</v>
       </c>
       <c r="O9" t="n">
-        <v>1945.332233393101</v>
+        <v>1966.043356600765</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930553</v>
+        <v>2213.07871503039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251705</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685354</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751583</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791639</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586106</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821152</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.682371710769</v>
+        <v>715.9213805686145</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7461887828621</v>
+        <v>546.9851976407076</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7461887828621</v>
+        <v>396.8685582283719</v>
       </c>
       <c r="E10" t="n">
-        <v>514.833095200469</v>
+        <v>248.9554646459787</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025586</v>
+        <v>102.0655171480684</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422493</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685579</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380175</v>
+        <v>76.63468308380143</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368927</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904045</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.748006577969</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1302.748006577969</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1013.330836541009</v>
+        <v>1346.351975440402</v>
       </c>
       <c r="X10" t="n">
-        <v>1013.330836541009</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>1013.330836541009</v>
+        <v>897.5698453988542</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.8166630479718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616108</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.4182386381631</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381631</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381631</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557701</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578599</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479718</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615662</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334535</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673284</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667828</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694713</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740621</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385788</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2231.588527385788</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2381.235169913442</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2715.159942084662</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>2913.946970978146</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>3511.325458604697</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>4138.923422159303</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.83315239859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301202</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022976</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566161</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334419</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606217</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400684</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.38631463573</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138426</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859358</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2418223736001</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557701</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578599</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138426</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138426</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
@@ -5506,22 +5506,22 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479718</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612122999</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756264</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913849</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417936</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459598</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>599.601906018053</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057174</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310019</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330917</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.8166630479718</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817747</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761994</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,70 +5734,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589156</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143763</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595363</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3026.711098656035</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2876.594459243699</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661307</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661307</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218385</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866298</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296622</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822161</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998101</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729138</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.63491767169</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.83315239859</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305897</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328838</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.57143446715</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.57143446715</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569133</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425602</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479718</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536372</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310019</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.8166630479718</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.923811518854</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.506641481894</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.517090583877</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,10 +6496,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.306025422647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.3698424947402</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.2532030824044</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.3401095000113</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.4501620021009</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1500.747069396417</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1279.954490252887</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532803</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.30903818352</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>768.5380889459582</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>618.4214495336224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>618.4214495336224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>471.531502035712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>304.335402750592</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>162.6235715927901</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7387,61 +7387,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7453,10 +7453,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>4623.787448650995</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>4335.421017366253</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>4080.736529160366</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>3791.319359123406</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>3563.329808225389</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3342.537229081859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>7.314107919012507</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594376</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.2361746779818</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>45.45581324023033</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348493</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.20374480898747</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>15.02465210191733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>105.2672314396007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>147.021377568693</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.8202214113324</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>181.7279934189949</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3575234924705057</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>37.52737017531066</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.484927925676</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.14699685919554</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.7017074173493256</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>59.18072286392699</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796727.0381379534</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448192</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597544</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26346,16 +26346,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580806</v>
+        <v>390680.0076580788</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606911</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.298474137503442e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911432</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101812</v>
+        <v>95270.23779101754</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748621</v>
+        <v>250332.6659748622</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.652755502</v>
+        <v>139261.6527555025</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.0882867814</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678148</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,19 +26447,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="O4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="P4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678125</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567909</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-357161.0781255015</v>
       </c>
       <c r="C6" t="n">
-        <v>322926.9024656913</v>
+        <v>322926.9024656914</v>
       </c>
       <c r="D6" t="n">
-        <v>13462.84365555746</v>
+        <v>13462.84365555938</v>
       </c>
       <c r="E6" t="n">
-        <v>5949.764588374892</v>
+        <v>5602.38533401617</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947093</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.9966490662</v>
+        <v>513511.6173947093</v>
       </c>
       <c r="H6" t="n">
-        <v>513858.9966490662</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.996649066</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="J6" t="n">
-        <v>444859.8422299519</v>
+        <v>444512.4629755954</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="L6" t="n">
-        <v>418588.7588580483</v>
+        <v>418241.379603692</v>
       </c>
       <c r="M6" t="n">
-        <v>381141.0209535981</v>
+        <v>380793.6416992404</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947095</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947098</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947093</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,22 +26740,22 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562784</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26795,22 +26795,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856973</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.123092671879303e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933059</v>
+        <v>319.6474457933044</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778889</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015071</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841914</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.123092671879303e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841912</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27432,22 +27432,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>356.8861390405635</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>63.39144972487516</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>101.5406540591148</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>111.3275226297076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>116.6791983382547</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.125422521255</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>281.8985179413229</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.607434906995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.396261315575</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>78.07391927551579</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3978001776311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.58530527022214</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.776449164524365</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164530987</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.9615342899056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>58.1232214239983</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.634895131152508e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.33288016639136e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.861621967691462e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.670822253014367e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.745189433579291e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885561</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763196</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354937</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359948</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525084</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307901</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983027</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542134</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140481</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026279</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502172</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571286</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617173</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015222</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519089</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947594</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133945</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415886</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462353</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307424</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794276</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650344</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>316.087289969479</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601603</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443724</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>697.0074482175638</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>391.9250669264639</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.262887399594241</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089033</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731339</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655064</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087221</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559175</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091033</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430331</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234321</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127608</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758582</v>
+        <v>354.6977871538395</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772544</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856973</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318887</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074645</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>294.9864783206595</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.458498396198</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787333</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357668</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228601</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250346</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,16 +35576,16 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802861</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992795</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,16 +35813,16 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>565.6657361342305</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121337</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010476</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2464296.56022052</v>
+        <v>2466057.090523306</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>72.63544656439271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>263.7138800015061</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3170492634406</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>193.5678163704322</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.20829442275649</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,10 +837,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>169.8437999983363</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="F5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9356567043871</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.36004337105338</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>71.5544683663345</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.90788721341721</v>
       </c>
       <c r="U8" t="n">
-        <v>186.4600614194635</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>18.47335059661782</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256429</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.3457193218006</v>
+        <v>50.34571932179955</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>129.7194509233209</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892403</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.35059460820229</v>
       </c>
       <c r="S16" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>129.1078928223853</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833502</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044907</v>
+        <v>367.7894056603329</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>367.7894056603329</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>367.7894056603329</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.411749093155</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>94.46624834395151</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4336,46 +4336,46 @@
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515901</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>634.1670622275108</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.5183722823837</v>
+        <v>672.781252353926</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>498.3282230727989</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>26.30736892571879</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>100.991389695173</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519934</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>694.2029851278861</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823837</v>
+        <v>840.9965893739941</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.519540580805</v>
+        <v>353.7012779513404</v>
       </c>
       <c r="C4" t="n">
-        <v>448.519540580805</v>
+        <v>340.3595664132026</v>
       </c>
       <c r="D4" t="n">
-        <v>298.4029011684693</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4509,31 +4509,31 @@
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165359</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="W4" t="n">
-        <v>676.5090914788224</v>
+        <v>581.6908288493578</v>
       </c>
       <c r="X4" t="n">
-        <v>448.519540580805</v>
+        <v>353.7012779513404</v>
       </c>
       <c r="Y4" t="n">
-        <v>448.519540580805</v>
+        <v>353.7012779513404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>686.1106626298169</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>419.733006062639</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E5" t="n">
-        <v>419.733006062639</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>153.355349495461</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4688,10 +4688,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>352.1476843601621</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434483</v>
@@ -4728,13 +4728,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>982.5782792319493</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>754.588728333932</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>533.7961491904018</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.387721345801</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.387721345801</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>859.6512305626361</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>473.8629779643919</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>62.87707317478436</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467171</v>
+        <v>187.3702251467167</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045924</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209584</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2524.292167197913</v>
       </c>
       <c r="U8" t="n">
-        <v>2372.219263959486</v>
+        <v>2270.710988723483</v>
       </c>
       <c r="V8" t="n">
-        <v>2041.156376615915</v>
+        <v>1939.648101379912</v>
       </c>
       <c r="W8" t="n">
-        <v>1688.387721345801</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="X8" t="n">
-        <v>1688.387721345801</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.387721345801</v>
+        <v>1586.879446109798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010736</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199466</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586954</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532399</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801249</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763131</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530444933</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>113.4887579637185</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330246</v>
+        <v>298.0857543148174</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665058</v>
+        <v>592.6217377482983</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140807</v>
+        <v>1208.393778287026</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613376</v>
+        <v>1842.133061471864</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600765</v>
+        <v>2174.019871459253</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.07871503039</v>
+        <v>2421.055229888877</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442625</v>
+        <v>2536.272628442622</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342779</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251694</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685343</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751573</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.57421351983</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791628</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821142</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686145</v>
+        <v>715.9213805686134</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407076</v>
+        <v>546.9851976407065</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283719</v>
+        <v>396.8685582283707</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459787</v>
+        <v>248.9554646459776</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480684</v>
+        <v>102.0655171480672</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685565</v>
+        <v>51.21125520685558</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380129</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440402</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542384</v>
+        <v>1118.362424542383</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988542</v>
+        <v>897.5698453988531</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2315.933335172866</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2096.331870195806</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.093796097228</v>
       </c>
       <c r="S16" t="n">
-        <v>2314.910189088387</v>
+        <v>2212.238961752132</v>
       </c>
       <c r="T16" t="n">
-        <v>2095.308724111328</v>
+        <v>1992.637496775073</v>
       </c>
       <c r="U16" t="n">
-        <v>1806.233497455525</v>
+        <v>1703.562270119271</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.549009249638</v>
+        <v>1448.877781913384</v>
       </c>
       <c r="W16" t="n">
-        <v>1262.131839212678</v>
+        <v>1159.460611876424</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711304</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5500,28 +5500,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,10 +6952,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7159,13 +7159,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
@@ -7192,7 +7192,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429802</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797186</v>
@@ -7590,31 +7590,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.314107919012507</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544042</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>45.78351343583176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.2361746779818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.2581536004313</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.146344153807</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.72409101823416</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>51.30683507832367</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>15.02465210191941</v>
       </c>
       <c r="S16" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>19.50758019582707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393382</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="15">
@@ -26325,10 +26325,10 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
@@ -26346,16 +26346,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580788</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606934</v>
+        <v>507909.2320606939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101754</v>
+        <v>95270.23779101737</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555025</v>
+        <v>139261.6527555027</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26450,13 +26450,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="N4" t="n">
-        <v>10557.08828678127</v>
-      </c>
       <c r="O4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357161.0781255015</v>
+        <v>-357161.0781255013</v>
       </c>
       <c r="C6" t="n">
         <v>322926.9024656914</v>
       </c>
       <c r="D6" t="n">
-        <v>13462.84365555938</v>
+        <v>13462.84365556005</v>
       </c>
       <c r="E6" t="n">
-        <v>5602.38533401617</v>
+        <v>5915.0266629369</v>
       </c>
       <c r="F6" t="n">
-        <v>513511.6173947093</v>
+        <v>513824.2587236311</v>
       </c>
       <c r="G6" t="n">
-        <v>513511.6173947093</v>
+        <v>513824.2587236305</v>
       </c>
       <c r="H6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="I6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="J6" t="n">
-        <v>444512.4629755954</v>
+        <v>444825.1043045167</v>
       </c>
       <c r="K6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="L6" t="n">
-        <v>418241.379603692</v>
+        <v>418554.0209326133</v>
       </c>
       <c r="M6" t="n">
-        <v>380793.6416992404</v>
+        <v>381106.2830281616</v>
       </c>
       <c r="N6" t="n">
-        <v>513511.6173947095</v>
+        <v>513824.2587236305</v>
       </c>
       <c r="O6" t="n">
-        <v>513511.6173947098</v>
+        <v>513824.258723631</v>
       </c>
       <c r="P6" t="n">
-        <v>513511.6173947093</v>
+        <v>513824.2587236307</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627821</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856956</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933039</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.24037093453929e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841886</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139528</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C2" t="n">
-        <v>152.7039266531025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>340.1987280813173</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>63.39144972487516</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>12.11487940687218</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>154.0385266758713</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>116.6791983382547</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669353</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>281.8985179413229</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27706,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.07391927551579</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>214.9685299702565</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>170.7566758512726</v>
       </c>
       <c r="U8" t="n">
-        <v>64.58530527022214</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164534611</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164530987</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899056</v>
+        <v>115.9615342899066</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28064,7 +28064,7 @@
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3.78475325154189e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763186</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359934</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525071</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307888</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983016</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140464</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571277</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617162</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152209</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.835446451908</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133929</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415875</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307408</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33912,10 +33912,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.262887399594241</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34789,10 +34789,10 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>217.4386117456598</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087207</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559162</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.337407809102</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430321</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234272</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127568</v>
       </c>
       <c r="K9" t="n">
-        <v>354.6977871538395</v>
+        <v>186.4616124758575</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772535</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>621.9919601401292</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>640.1406900856947</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>24.53548676783564</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873305</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -37560,10 +37560,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998953</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
